--- a/2 - RiverWare Modeling/Hydrology/MI+AG_Values.xlsx
+++ b/2 - RiverWare Modeling/Hydrology/MI+AG_Values.xlsx
@@ -1,103 +1,96 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacob\Documents\GitHub\WeberBasinVulnerability\WeberBasinVulnerability\2 - RiverWare Modeling\Hydrology\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EEF1BAB-DDC6-4ACF-9BE2-CA6AF0088FFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Trace1" sheetId="1" r:id="rId1"/>
-    <sheet name="Trace2" sheetId="2" r:id="rId2"/>
-    <sheet name="Trace3" sheetId="3" r:id="rId3"/>
-    <sheet name="Trace4" sheetId="4" r:id="rId4"/>
-    <sheet name="Trace5" sheetId="5" r:id="rId5"/>
-    <sheet name="Trace6" sheetId="6" r:id="rId6"/>
+    <sheet name="Trace1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Trace2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Trace3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Trace4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Trace5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Trace6" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="22">
-  <si>
-    <t>SA1</t>
-  </si>
-  <si>
-    <t>SA2</t>
-  </si>
-  <si>
-    <t>SA3</t>
-  </si>
-  <si>
-    <t>SA4</t>
-  </si>
-  <si>
-    <t>SA5</t>
-  </si>
-  <si>
-    <t>SA6</t>
-  </si>
-  <si>
-    <t>SA7</t>
-  </si>
-  <si>
-    <t>SA8</t>
-  </si>
-  <si>
-    <t>SA9</t>
-  </si>
-  <si>
-    <t>SA10</t>
-  </si>
-  <si>
-    <t>SA11</t>
-  </si>
-  <si>
-    <t>SA12</t>
-  </si>
-  <si>
-    <t>SA13</t>
-  </si>
-  <si>
-    <t>SA14</t>
-  </si>
-  <si>
-    <t>SA15</t>
-  </si>
-  <si>
-    <t>SA16</t>
-  </si>
-  <si>
-    <t>SA17</t>
-  </si>
-  <si>
-    <t>SA18</t>
-  </si>
-  <si>
-    <t>SA19</t>
-  </si>
-  <si>
-    <t>SA20</t>
-  </si>
-  <si>
-    <t>Demand Data.AnnualDemands</t>
-  </si>
-  <si>
-    <t>AnnDmnd</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t xml:space="preserve">SA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demand Data.AnnualDemands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AnnDmnd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -133,15 +126,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -423,1117 +407,1105 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B22"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="B1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="B2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>35500</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>31681.743579397</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>10931.7198293127</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>9044.1817783549395</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="n">
+        <v>9044.18177835494</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
-        <v>6330.9272448484598</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="n">
+        <v>6330.92724484846</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
-        <v>21806.527176700201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="n">
+        <v>21806.5271767002</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
-        <v>6680.4954512466502</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="n">
+        <v>6680.49545124665</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10">
-        <v>10853.018134025901</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="n">
+        <v>10853.0181340259</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11">
-        <v>1507.3636297258199</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="n">
+        <v>1507.36362972582</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>92888.6433827867</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13">
-        <v>64896.241821608302</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="n">
+        <v>64896.2418216083</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14">
-        <v>27394.692609923699</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="n">
+        <v>27394.6926099237</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15">
-        <v>31381.233698681299</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="n">
+        <v>31381.2336986813</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16">
-        <v>23817.027530269501</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="n">
+        <v>23817.0275302695</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17">
-        <v>75028.747670462704</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="n">
+        <v>75028.7476704627</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18">
-        <v>19421.610432408601</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="n">
+        <v>19421.6104324086</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19">
-        <v>61842.496376880001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="n">
+        <v>61842.49637688</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20">
-        <v>9488.8148702581802</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="n">
+        <v>9488.81487025818</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21">
-        <v>18603.858414201899</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="n">
+        <v>18603.8584142019</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B22"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="B1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="B2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>35500</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>30947.536507588698</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="n">
+        <v>31775.7574938656</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>10678.383203896499</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="n">
+        <v>10964.1591352636</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>8883.0450335063906</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="n">
+        <v>9254.38887993426</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
-        <v>6218.13152345448</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="n">
+        <v>6478.07221595398</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
-        <v>21418.008580787598</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="n">
+        <v>22313.3598549526</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
-        <v>6525.6786246033898</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="n">
+        <v>6700.31947154995</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10">
-        <v>10659.654040207701</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="n">
+        <v>11105.2666559211</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11">
-        <v>1480.5075055844</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="n">
+        <v>1542.39814665571</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12">
-        <v>89046.643462849097</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="n">
+        <v>89630.3043069251</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13">
-        <v>62212.0454892817</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="n">
+        <v>62619.8175688337</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14">
-        <v>25643.0749329061</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="n">
+        <v>26062.9776556685</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15">
-        <v>29374.7164343365</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="n">
+        <v>29855.724404068</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16">
-        <v>22294.165893160902</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="n">
+        <v>22659.2305737715</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17">
-        <v>70231.406719227904</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="n">
+        <v>71381.4388032113</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18">
-        <v>18179.7919300453</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="n">
+        <v>18477.4841588693</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19">
-        <v>57888.284829881399</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="n">
+        <v>58836.1995585053</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20">
-        <v>4112.7512507066003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="n">
+        <v>4313.30180486175</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21">
-        <v>17414.327006675001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="n">
+        <v>17699.4848258644</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B22"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="B1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="B2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>35500</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>28829.6512914665</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="n">
+        <v>29062.5593656335</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>9947.6113082376796</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="n">
+        <v>10027.9757555541</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>8668.7280083851892</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="n">
+        <v>8971.76928531528</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
-        <v>6068.1096058696303</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="n">
+        <v>6280.2384997207</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
-        <v>20901.266420217598</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="n">
+        <v>21631.932610149</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
-        <v>6079.0957994785704</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="n">
+        <v>6128.20740617192</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10">
-        <v>10402.473610062199</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="n">
+        <v>10766.1231423783</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11">
-        <v>1444.78800139753</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="n">
+        <v>1495.29488088588</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12">
-        <v>106672.61314313899</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="n">
+        <v>106672.613143139</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13">
-        <v>74526.351620319401</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="n">
+        <v>74526.3516203194</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14">
-        <v>24621.7151297768</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="n">
+        <v>24709.9823889835</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15">
-        <v>28204.725913587499</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="n">
+        <v>28305.8380351415</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16">
-        <v>21406.192631484901</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="n">
+        <v>21482.9324501236</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17">
-        <v>67434.100392746594</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="n">
+        <v>67675.8472892307</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18">
-        <v>17455.693562155</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="n">
+        <v>17518.2710966673</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19">
-        <v>55582.603184757099</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="n">
+        <v>55781.8632288618</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20">
-        <v>977.99571330001004</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="n">
+        <v>1020.15321023457</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21">
-        <v>16720.7169911169</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="n">
+        <v>16780.6596820707</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B22"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="B1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="B2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>35500</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>28518.644557815802</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="n">
+        <v>28817.931524063</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>9840.2990806520902</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="n">
+        <v>9943.56742683324</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>8795.3590655888092</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="n">
+        <v>8829.99757981908</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
-        <v>6156.7513459121701</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="n">
+        <v>6180.99830587336</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
-        <v>21206.587969253</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="n">
+        <v>21290.105275786</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
-        <v>6013.51610484295</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="n">
+        <v>6076.62453862032</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10">
-        <v>10554.4308787066</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="n">
+        <v>10595.9970957829</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11">
-        <v>1465.89317759814</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="n">
+        <v>1471.66626330318</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12">
-        <v>68875.343333618497</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="n">
+        <v>72237.6397457232</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13">
-        <v>48119.455444141997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="n">
+        <v>50468.5090322829</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14">
-        <v>24110.075449917498</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="n">
+        <v>24576.3144560977</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15">
-        <v>27618.6312056891</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="n">
+        <v>28152.7184254552</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16">
-        <v>20961.3715665327</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="n">
+        <v>21366.721150264</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17">
-        <v>66032.818582983004</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="n">
+        <v>67309.7567566257</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18">
-        <v>17092.963938374302</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="n">
+        <v>17423.5065173827</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19">
-        <v>54427.595698507801</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="n">
+        <v>55480.1128579817</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20">
-        <v>9473.6364234191806</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="n">
+        <v>9475.27464926266</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21">
-        <v>16373.260193600699</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="n">
+        <v>16689.885190335</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B22"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="B1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="B2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>35500</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>26715.024646942598</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="n">
+        <v>27543.2456332195</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>9217.9637759418601</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="n">
+        <v>9503.73970730896</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>8391.2459169097292</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="n">
+        <v>8762.58976333759</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
-        <v>5873.8721418368104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="n">
+        <v>6133.81283433632</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
-        <v>20232.226266326801</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="n">
+        <v>21127.5775404918</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
-        <v>5633.2000852977999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="n">
+        <v>5807.84093224436</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10">
-        <v>10069.495100291701</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="n">
+        <v>10515.1077160051</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11">
-        <v>1398.54098615162</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="n">
+        <v>1460.43162722293</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12">
-        <v>62783.614774734102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="n">
+        <v>63367.2756188101</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13">
-        <v>43863.496101083903</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="n">
+        <v>44271.2681806359</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14">
-        <v>19718.211753909101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="n">
+        <v>20138.1144766715</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15">
-        <v>22587.653016604701</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="n">
+        <v>23068.6609863362</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16">
-        <v>17143.072159182098</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="n">
+        <v>17508.1368397927</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17">
-        <v>54004.3560722732</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="n">
+        <v>55154.3881562566</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18">
-        <v>13979.329228517599</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="n">
+        <v>14277.0214573416</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19">
-        <v>44513.127280279798</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="n">
+        <v>45461.0420089037</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20">
-        <v>4083.7040337543199</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="n">
+        <v>4284.25458790946</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21">
-        <v>13390.72589258</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="n">
+        <v>13675.8837117694</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B22"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="B1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="B2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>35500</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>16958.147868001099</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="n">
+        <v>17993.372840863</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>5851.3737052528104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="n">
+        <v>6208.57593231059</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>7090.6778037744598</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="n">
+        <v>7522.83808839965</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
-        <v>4963.4744626421298</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="n">
+        <v>5265.98666187976</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
-        <v>17096.412037989499</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="n">
+        <v>18138.3985020303</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
-        <v>3575.8394865433702</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="n">
+        <v>3794.12973641202</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10">
-        <v>8508.8133645293401</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="n">
+        <v>9027.40570607958</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11">
-        <v>1181.7796339624099</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="n">
+        <v>1253.80634806661</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12">
-        <v>61411.007724668103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="n">
+        <v>67748.4512744103</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13">
-        <v>42904.5302275051</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="n">
+        <v>47332.1572673363</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14">
-        <v>13006.196953462701</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="n">
+        <v>14404.391824541</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15">
-        <v>14898.889793705401</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="n">
+        <v>16500.5533213959</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16">
-        <v>11307.626455809001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="n">
+        <v>12523.2212504405</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17">
-        <v>35621.4498650807</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="n">
+        <v>39450.8343254221</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18">
-        <v>9220.8112729772893</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="n">
+        <v>10212.0688308313</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19">
-        <v>29361.0043165856</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="n">
+        <v>32517.3770665945</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20">
-        <v>89.328611872382496</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="n">
+        <v>94.2413274557146</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21">
-        <v>8832.5665877992997</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="n">
+        <v>9782.08698532265</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/2 - RiverWare Modeling/Hydrology/MI+AG_Values.xlsx
+++ b/2 - RiverWare Modeling/Hydrology/MI+AG_Values.xlsx
@@ -1,96 +1,103 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacob\Documents\GitHub\WeberBasinVulnerability\WeberBasinVulnerability\2 - RiverWare Modeling\Hydrology\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066E7BF0-E5FB-406B-9398-A7FFBEE1DB69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Trace1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Trace2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Trace3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Trace4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Trace5" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Trace6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Trace1" sheetId="1" r:id="rId1"/>
+    <sheet name="Trace2" sheetId="2" r:id="rId2"/>
+    <sheet name="Trace3" sheetId="3" r:id="rId3"/>
+    <sheet name="Trace4" sheetId="4" r:id="rId4"/>
+    <sheet name="Trace5" sheetId="5" r:id="rId5"/>
+    <sheet name="Trace6" sheetId="6" r:id="rId6"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t xml:space="preserve">SA1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demand Data.AnnualDemands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AnnDmnd</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="22">
+  <si>
+    <t>SA1</t>
+  </si>
+  <si>
+    <t>SA2</t>
+  </si>
+  <si>
+    <t>SA3</t>
+  </si>
+  <si>
+    <t>SA4</t>
+  </si>
+  <si>
+    <t>SA5</t>
+  </si>
+  <si>
+    <t>SA6</t>
+  </si>
+  <si>
+    <t>SA7</t>
+  </si>
+  <si>
+    <t>SA8</t>
+  </si>
+  <si>
+    <t>SA9</t>
+  </si>
+  <si>
+    <t>SA10</t>
+  </si>
+  <si>
+    <t>SA11</t>
+  </si>
+  <si>
+    <t>SA12</t>
+  </si>
+  <si>
+    <t>SA13</t>
+  </si>
+  <si>
+    <t>SA14</t>
+  </si>
+  <si>
+    <t>SA15</t>
+  </si>
+  <si>
+    <t>SA16</t>
+  </si>
+  <si>
+    <t>SA17</t>
+  </si>
+  <si>
+    <t>SA18</t>
+  </si>
+  <si>
+    <t>SA19</t>
+  </si>
+  <si>
+    <t>SA20</t>
+  </si>
+  <si>
+    <t>Demand Data.AnnualDemands</t>
+  </si>
+  <si>
+    <t>AnnDmnd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -126,6 +133,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -407,1105 +423,1117 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>35500</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="n">
-        <v>31681.743579397</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="B4">
+        <v>28732.420962278102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="n">
-        <v>10931.7198293127</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="B5">
+        <v>9914.0621850671996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="n">
-        <v>9044.18177835494</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="B6">
+        <v>8820.1008614675793</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="n">
-        <v>6330.92724484846</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="B7">
+        <v>6174.0706030273004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="n">
-        <v>21806.5271767002</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="B8">
+        <v>21266.243188205201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="n">
-        <v>6680.49545124665</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="B9">
+        <v>6058.5935575410704</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="n">
-        <v>10853.0181340259</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="B10">
+        <v>10584.121033761099</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="n">
-        <v>1507.36362972582</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="B11">
+        <v>1470.0168102446</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" t="n">
-        <v>92888.6433827867</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="B12">
+        <v>71276.983627979003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" t="n">
-        <v>64896.2418216083</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="B13">
+        <v>49797.350864242697</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" t="n">
-        <v>27394.6926099237</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="B14">
+        <v>24443.103311474799</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" t="n">
-        <v>31381.2336986813</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="B15">
+        <v>28000.1220769506</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" t="n">
-        <v>23817.0275302695</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="B16">
+        <v>21250.906983483699</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17" t="n">
-        <v>75028.7476704627</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="B17">
+        <v>66944.917278442095</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" t="n">
-        <v>19421.6104324086</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="B18">
+        <v>17329.065780523099</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" t="n">
-        <v>61842.49637688</v>
-      </c>
-    </row>
-    <row r="20">
+      <c r="B19">
+        <v>55179.393669560603</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20" t="n">
-        <v>9488.81487025818</v>
-      </c>
-    </row>
-    <row r="21">
+      <c r="B20">
+        <v>12788.081288257699</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" t="n">
-        <v>18603.8584142019</v>
-      </c>
-    </row>
-    <row r="22">
+      <c r="B21">
+        <v>16599.420905553801</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E26" sqref="D26:E38"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>35500</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="n">
-        <v>31775.7574938656</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="B4">
+        <v>31681.743579397</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="n">
-        <v>10964.1591352636</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="B5">
+        <v>10931.7198293127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="n">
-        <v>9254.38887993426</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="B6">
+        <v>9044.1817783549395</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="n">
-        <v>6478.07221595398</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="B7">
+        <v>6330.9272448484598</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="n">
-        <v>22313.3598549526</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="B8">
+        <v>21806.527176700201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="n">
-        <v>6700.31947154995</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="B9">
+        <v>6680.4954512466502</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="n">
-        <v>11105.2666559211</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="B10">
+        <v>10853.018134025901</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="n">
-        <v>1542.39814665571</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="B11">
+        <v>1507.3636297258199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" t="n">
-        <v>89630.3043069251</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="B12">
+        <v>92888.6433827867</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" t="n">
-        <v>62619.8175688337</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="B13">
+        <v>64896.241821608302</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" t="n">
-        <v>26062.9776556685</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="B14">
+        <v>27394.692609923699</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" t="n">
-        <v>29855.724404068</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="B15">
+        <v>31381.233698681299</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" t="n">
-        <v>22659.2305737715</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="B16">
+        <v>23817.027530269501</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17" t="n">
-        <v>71381.4388032113</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="B17">
+        <v>75028.747670462704</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" t="n">
-        <v>18477.4841588693</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="B18">
+        <v>19421.610432408601</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" t="n">
-        <v>58836.1995585053</v>
-      </c>
-    </row>
-    <row r="20">
+      <c r="B19">
+        <v>61842.496376880001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20" t="n">
-        <v>4313.30180486175</v>
-      </c>
-    </row>
-    <row r="21">
+      <c r="B20">
+        <v>12802.08957378</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" t="n">
-        <v>17699.4848258644</v>
-      </c>
-    </row>
-    <row r="22">
+      <c r="B21">
+        <v>18603.858414201899</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>35500</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="n">
-        <v>29062.5593656335</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="B4">
+        <v>26090.740833122902</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="n">
-        <v>10027.9757555541</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="B5">
+        <v>9002.5559424194107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="n">
-        <v>8971.76928531528</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="B6">
+        <v>8485.8609535813594</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="n">
-        <v>6280.2384997207</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="B7">
+        <v>5940.1026675069597</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="n">
-        <v>21631.932610149</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="B8">
+        <v>20460.353632523998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="n">
-        <v>6128.20740617192</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="B9">
+        <v>5501.56196481186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="n">
-        <v>10766.1231423783</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="B10">
+        <v>10183.0331442976</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="n">
-        <v>1495.29488088588</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="B11">
+        <v>1414.31015893023</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" t="n">
-        <v>106672.613143139</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="B12">
+        <v>54913.4886191677</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" t="n">
-        <v>74526.3516203194</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="B13">
+        <v>38365.067105265</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" t="n">
-        <v>24709.9823889835</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="B14">
+        <v>16995.8415208027</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" t="n">
-        <v>28305.8380351415</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="B15">
+        <v>19469.116965993999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" t="n">
-        <v>21482.9324501236</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="B16">
+        <v>14776.2353520411</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17" t="n">
-        <v>67675.8472892307</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="B17">
+        <v>46548.312224884699</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" t="n">
-        <v>17518.2710966673</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="B18">
+        <v>12049.2906304197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" t="n">
-        <v>55781.8632288618</v>
-      </c>
-    </row>
-    <row r="20">
+      <c r="B19">
+        <v>38367.478060020803</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20" t="n">
-        <v>1020.15321023457</v>
-      </c>
-    </row>
-    <row r="21">
+      <c r="B20">
+        <v>13377.5750928791</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" t="n">
-        <v>16780.6596820707</v>
-      </c>
-    </row>
-    <row r="22">
+      <c r="B21">
+        <v>11541.952077559999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>35500</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="n">
-        <v>28817.931524063</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="B4">
+        <v>31775.7574938656</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="n">
-        <v>9943.56742683324</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="B5">
+        <v>10964.159135263601</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="n">
-        <v>8829.99757981908</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="B6">
+        <v>9254.3888799342603</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="n">
-        <v>6180.99830587336</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="B7">
+        <v>6478.07221595398</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="n">
-        <v>21290.105275786</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="B8">
+        <v>22313.3598549526</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="n">
-        <v>6076.62453862032</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="B9">
+        <v>6700.3194715499503</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="n">
-        <v>10595.9970957829</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="B10">
+        <v>11105.266655921099</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="n">
-        <v>1471.66626330318</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="B11">
+        <v>1542.39814665571</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" t="n">
-        <v>72237.6397457232</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="B12">
+        <v>89630.3043069251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" t="n">
-        <v>50468.5090322829</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="B13">
+        <v>62619.8175688337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" t="n">
-        <v>24576.3144560977</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="B14">
+        <v>26062.977655668499</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" t="n">
-        <v>28152.7184254552</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="B15">
+        <v>29855.724404068002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" t="n">
-        <v>21366.721150264</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="B16">
+        <v>22659.2305737715</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17" t="n">
-        <v>67309.7567566257</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="B17">
+        <v>71381.438803211306</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" t="n">
-        <v>17423.5065173827</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="B18">
+        <v>18477.484158869302</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" t="n">
-        <v>55480.1128579817</v>
-      </c>
-    </row>
-    <row r="20">
+      <c r="B19">
+        <v>58836.199558505301</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20" t="n">
-        <v>9475.27464926266</v>
-      </c>
-    </row>
-    <row r="21">
+      <c r="B20">
+        <v>13423.844797949299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" t="n">
-        <v>16689.885190335</v>
-      </c>
-    </row>
-    <row r="22">
+      <c r="B21">
+        <v>17699.484825864402</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>35500</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="n">
-        <v>27543.2456332195</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="B4">
+        <v>17754.571528347598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="n">
-        <v>9503.73970730896</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="B5">
+        <v>6126.1780353403801</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="n">
-        <v>8762.58976333759</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="B6">
+        <v>7646.5753886840102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="n">
-        <v>6133.81283433632</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="B7">
+        <v>5352.6027720788097</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="n">
-        <v>21127.5775404918</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="B8">
+        <v>18436.742881604801</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="n">
-        <v>5807.84093224436</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="B9">
+        <v>3743.7754660413302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="n">
-        <v>10515.1077160051</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="B10">
+        <v>9175.8904664208094</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="n">
-        <v>1460.43162722293</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="B11">
+        <v>1274.42923144734</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" t="n">
-        <v>63367.2756188101</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="B12">
+        <v>65937.753117341097</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" t="n">
-        <v>44271.2681806359</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="B13">
+        <v>46067.120970241704</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" t="n">
-        <v>20138.1144766715</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="B14">
+        <v>14004.9075756615</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" t="n">
-        <v>23068.6609863362</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="B15">
+        <v>16042.935170627199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" t="n">
-        <v>17508.1368397927</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="B16">
+        <v>12175.908451974399</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17" t="n">
-        <v>55154.3881562566</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="B17">
+        <v>38356.724479610297</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" t="n">
-        <v>14277.0214573416</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="B18">
+        <v>9928.8523857301807</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" t="n">
-        <v>45461.0420089037</v>
-      </c>
-    </row>
-    <row r="20">
+      <c r="B19">
+        <v>31615.556280877699</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20" t="n">
-        <v>4284.25458790946</v>
-      </c>
-    </row>
-    <row r="21">
+      <c r="B20">
+        <v>13728.132423462201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" t="n">
-        <v>13675.8837117694</v>
-      </c>
-    </row>
-    <row r="22">
+      <c r="B21">
+        <v>9510.7954431731196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>35500</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="n">
-        <v>17993.372840863</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="B4">
+        <v>29202.3042101338</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="n">
-        <v>6208.57593231059</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="B5">
+        <v>10076.1944239439</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="n">
-        <v>7522.83808839965</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="B6">
+        <v>9153.5940514733302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="n">
-        <v>5265.98666187976</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="B7">
+        <v>6407.5158360313399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="n">
-        <v>18138.3985020303</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="B8">
+        <v>22070.332324107902</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="n">
-        <v>3794.12973641202</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="B9">
+        <v>6157.6743701879404</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="n">
-        <v>9027.40570607958</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="B10">
+        <v>10984.312861767999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="n">
-        <v>1253.80634806661</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="B11">
+        <v>1525.5990085788901</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" t="n">
-        <v>67748.4512744103</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="B12">
+        <v>106672.61314313899</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" t="n">
-        <v>47332.1572673363</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="B13">
+        <v>74526.351620319401</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" t="n">
-        <v>14404.391824541</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="B14">
+        <v>24762.9427445076</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" t="n">
-        <v>16500.5533213959</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="B15">
+        <v>28366.5053080738</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" t="n">
-        <v>12523.2212504405</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="B16">
+        <v>21528.976341306799</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17" t="n">
-        <v>39450.8343254221</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="B17">
+        <v>67820.895427121199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" t="n">
-        <v>10212.0688308313</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="B18">
+        <v>17555.8176173746</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" t="n">
-        <v>32517.3770665945</v>
-      </c>
-    </row>
-    <row r="20">
+      <c r="B19">
+        <v>55901.419255324698</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20" t="n">
-        <v>94.2413274557146</v>
-      </c>
-    </row>
-    <row r="21">
+      <c r="B20">
+        <v>13793.873527809101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" t="n">
-        <v>9782.08698532265</v>
-      </c>
-    </row>
-    <row r="22">
+      <c r="B21">
+        <v>16816.625296643</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/2 - RiverWare Modeling/Hydrology/MI+AG_Values.xlsx
+++ b/2 - RiverWare Modeling/Hydrology/MI+AG_Values.xlsx
@@ -1,103 +1,96 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacob\Documents\GitHub\WeberBasinVulnerability\WeberBasinVulnerability\2 - RiverWare Modeling\Hydrology\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066E7BF0-E5FB-406B-9398-A7FFBEE1DB69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Trace1" sheetId="1" r:id="rId1"/>
-    <sheet name="Trace2" sheetId="2" r:id="rId2"/>
-    <sheet name="Trace3" sheetId="3" r:id="rId3"/>
-    <sheet name="Trace4" sheetId="4" r:id="rId4"/>
-    <sheet name="Trace5" sheetId="5" r:id="rId5"/>
-    <sheet name="Trace6" sheetId="6" r:id="rId6"/>
+    <sheet name="Trace1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Trace2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Trace3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Trace4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Trace5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Trace6" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="22">
-  <si>
-    <t>SA1</t>
-  </si>
-  <si>
-    <t>SA2</t>
-  </si>
-  <si>
-    <t>SA3</t>
-  </si>
-  <si>
-    <t>SA4</t>
-  </si>
-  <si>
-    <t>SA5</t>
-  </si>
-  <si>
-    <t>SA6</t>
-  </si>
-  <si>
-    <t>SA7</t>
-  </si>
-  <si>
-    <t>SA8</t>
-  </si>
-  <si>
-    <t>SA9</t>
-  </si>
-  <si>
-    <t>SA10</t>
-  </si>
-  <si>
-    <t>SA11</t>
-  </si>
-  <si>
-    <t>SA12</t>
-  </si>
-  <si>
-    <t>SA13</t>
-  </si>
-  <si>
-    <t>SA14</t>
-  </si>
-  <si>
-    <t>SA15</t>
-  </si>
-  <si>
-    <t>SA16</t>
-  </si>
-  <si>
-    <t>SA17</t>
-  </si>
-  <si>
-    <t>SA18</t>
-  </si>
-  <si>
-    <t>SA19</t>
-  </si>
-  <si>
-    <t>SA20</t>
-  </si>
-  <si>
-    <t>Demand Data.AnnualDemands</t>
-  </si>
-  <si>
-    <t>AnnDmnd</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t xml:space="preserve">SA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demand Data.AnnualDemands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AnnDmnd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -133,15 +126,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -423,1117 +407,1105 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B22"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="B1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="B2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>35500</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>28732.420962278102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="n">
+        <v>28732.4209622781</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>9914.0621850671996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="n">
+        <v>9914.0621850672</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>8820.1008614675793</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="n">
+        <v>8820.10086146758</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
-        <v>6174.0706030273004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="n">
+        <v>6174.0706030273</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
-        <v>21266.243188205201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="n">
+        <v>21266.2431882052</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
-        <v>6058.5935575410704</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="n">
+        <v>6058.59355754107</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10">
-        <v>10584.121033761099</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="n">
+        <v>10584.1210337611</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>1470.0168102446</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12">
-        <v>71276.983627979003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="n">
+        <v>71276.983627979</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13">
-        <v>49797.350864242697</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="n">
+        <v>49797.3508642427</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14">
-        <v>24443.103311474799</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="n">
+        <v>24443.1033114748</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>28000.1220769506</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16">
-        <v>21250.906983483699</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="n">
+        <v>21250.9069834837</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17">
-        <v>66944.917278442095</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="n">
+        <v>66944.9172784421</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18">
-        <v>17329.065780523099</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="n">
+        <v>17329.0657805231</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19">
-        <v>55179.393669560603</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="n">
+        <v>55179.3936695606</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20">
-        <v>12788.081288257699</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="n">
+        <v>12788.0812882577</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21">
-        <v>16599.420905553801</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="n">
+        <v>16599.4209055538</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E26" sqref="D26:E38"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="B1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="B2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>35500</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>31681.743579397</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>10931.7198293127</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>9044.1817783549395</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="n">
+        <v>9044.18177835494</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
-        <v>6330.9272448484598</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="n">
+        <v>6330.92724484846</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
-        <v>21806.527176700201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="n">
+        <v>21806.5271767002</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
-        <v>6680.4954512466502</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="n">
+        <v>6680.49545124665</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10">
-        <v>10853.018134025901</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="n">
+        <v>10853.0181340259</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11">
-        <v>1507.3636297258199</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="n">
+        <v>1507.36362972582</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>92888.6433827867</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13">
-        <v>64896.241821608302</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="n">
+        <v>64896.2418216083</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14">
-        <v>27394.692609923699</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="n">
+        <v>27394.6926099237</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15">
-        <v>31381.233698681299</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="n">
+        <v>31381.2336986813</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16">
-        <v>23817.027530269501</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="n">
+        <v>23817.0275302695</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17">
-        <v>75028.747670462704</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="n">
+        <v>75028.7476704627</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18">
-        <v>19421.610432408601</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="n">
+        <v>19421.6104324086</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19">
-        <v>61842.496376880001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="n">
+        <v>61842.49637688</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>12802.08957378</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21">
-        <v>18603.858414201899</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="n">
+        <v>18603.8584142019</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B22"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="B1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="B2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>35500</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>26090.740833122902</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="n">
+        <v>26090.7408331229</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>9002.5559424194107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="n">
+        <v>9002.55594241941</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>8485.8609535813594</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="n">
+        <v>8485.86095358136</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
-        <v>5940.1026675069597</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="n">
+        <v>5940.10266750696</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
-        <v>20460.353632523998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="n">
+        <v>20460.353632524</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>5501.56196481186</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>10183.0331442976</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>1414.31015893023</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>54913.4886191677</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>38365.067105265</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>16995.8415208027</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15">
-        <v>19469.116965993999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="n">
+        <v>19469.116965994</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>14776.2353520411</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17">
-        <v>46548.312224884699</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="n">
+        <v>46548.3122248847</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>12049.2906304197</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19">
-        <v>38367.478060020803</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="n">
+        <v>38367.4780600208</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>13377.5750928791</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21">
-        <v>11541.952077559999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="n">
+        <v>11541.95207756</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B22"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="B1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="B2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>35500</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>31775.7574938656</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>10964.159135263601</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="n">
+        <v>10964.1591352636</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>9254.3888799342603</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="n">
+        <v>9254.38887993426</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>6478.07221595398</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>22313.3598549526</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
-        <v>6700.3194715499503</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="n">
+        <v>6700.31947154995</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10">
-        <v>11105.266655921099</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="n">
+        <v>11105.2666559211</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>1542.39814665571</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>89630.3043069251</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>62619.8175688337</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14">
-        <v>26062.977655668499</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="n">
+        <v>26062.9776556685</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15">
-        <v>29855.724404068002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="n">
+        <v>29855.724404068</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>22659.2305737715</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17">
-        <v>71381.438803211306</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="n">
+        <v>71381.4388032113</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18">
-        <v>18477.484158869302</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="n">
+        <v>18477.4841588693</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19">
-        <v>58836.199558505301</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="n">
+        <v>58836.1995585053</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20">
-        <v>13423.844797949299</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="n">
+        <v>13423.8447979493</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21">
-        <v>17699.484825864402</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="n">
+        <v>17699.4848258644</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B22"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="B1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="B2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>35500</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>17754.571528347598</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="n">
+        <v>17754.5715283476</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>6126.1780353403801</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="n">
+        <v>6126.17803534038</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>7646.5753886840102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="n">
+        <v>7646.57538868401</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
-        <v>5352.6027720788097</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="n">
+        <v>5352.60277207881</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
-        <v>18436.742881604801</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="n">
+        <v>18436.7428816048</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
-        <v>3743.7754660413302</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="n">
+        <v>3743.77546604133</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10">
-        <v>9175.8904664208094</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="n">
+        <v>9175.89046642081</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>1274.42923144734</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12">
-        <v>65937.753117341097</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="n">
+        <v>65937.7531173411</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13">
-        <v>46067.120970241704</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="n">
+        <v>46067.1209702417</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>14004.9075756615</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15">
-        <v>16042.935170627199</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="n">
+        <v>16042.9351706272</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16">
-        <v>12175.908451974399</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="n">
+        <v>12175.9084519744</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17">
-        <v>38356.724479610297</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="n">
+        <v>38356.7244796103</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18">
-        <v>9928.8523857301807</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="n">
+        <v>9928.85238573018</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19">
-        <v>31615.556280877699</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="n">
+        <v>31615.5562808777</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20">
-        <v>13728.132423462201</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="n">
+        <v>13728.1324234622</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21">
-        <v>9510.7954431731196</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="n">
+        <v>9510.79544317312</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="B1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="B2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>35500</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>29202.3042101338</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>10076.1944239439</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>9153.5940514733302</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="n">
+        <v>9153.59405147333</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
-        <v>6407.5158360313399</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="n">
+        <v>6407.51583603134</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
-        <v>22070.332324107902</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="n">
+        <v>22070.3323241079</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
-        <v>6157.6743701879404</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="n">
+        <v>6157.67437018794</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10">
-        <v>10984.312861767999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="n">
+        <v>10984.312861768</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11">
-        <v>1525.5990085788901</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="n">
+        <v>1525.59900857889</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12">
-        <v>106672.61314313899</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="n">
+        <v>106672.613143139</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13">
-        <v>74526.351620319401</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="n">
+        <v>74526.3516203194</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>24762.9427445076</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>28366.5053080738</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16">
-        <v>21528.976341306799</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="n">
+        <v>21528.9763413068</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17">
-        <v>67820.895427121199</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="n">
+        <v>67820.8954271212</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>17555.8176173746</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19">
-        <v>55901.419255324698</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="n">
+        <v>55901.4192553247</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20">
-        <v>13793.873527809101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="n">
+        <v>13793.8735278091</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>16816.625296643</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/2 - RiverWare Modeling/Hydrology/MI+AG_Values.xlsx
+++ b/2 - RiverWare Modeling/Hydrology/MI+AG_Values.xlsx
@@ -1,96 +1,103 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacob\Documents\GitHub\WeberBasinVulnerability\WeberBasinVulnerability\2 - RiverWare Modeling\Hydrology\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F28C66-2987-44EE-9D1B-45E0A987B6FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-4575" yWindow="1290" windowWidth="15375" windowHeight="7875" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Trace1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Trace2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Trace3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Trace4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Trace5" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Trace6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Trace1" sheetId="1" r:id="rId1"/>
+    <sheet name="Trace2" sheetId="2" r:id="rId2"/>
+    <sheet name="Trace3" sheetId="3" r:id="rId3"/>
+    <sheet name="Trace4" sheetId="4" r:id="rId4"/>
+    <sheet name="Trace5" sheetId="5" r:id="rId5"/>
+    <sheet name="Trace6" sheetId="6" r:id="rId6"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t xml:space="preserve">SA1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demand Data.AnnualDemands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AnnDmnd</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="22">
+  <si>
+    <t>SA1</t>
+  </si>
+  <si>
+    <t>SA2</t>
+  </si>
+  <si>
+    <t>SA3</t>
+  </si>
+  <si>
+    <t>SA4</t>
+  </si>
+  <si>
+    <t>SA5</t>
+  </si>
+  <si>
+    <t>SA6</t>
+  </si>
+  <si>
+    <t>SA7</t>
+  </si>
+  <si>
+    <t>SA8</t>
+  </si>
+  <si>
+    <t>SA9</t>
+  </si>
+  <si>
+    <t>SA10</t>
+  </si>
+  <si>
+    <t>SA11</t>
+  </si>
+  <si>
+    <t>SA12</t>
+  </si>
+  <si>
+    <t>SA13</t>
+  </si>
+  <si>
+    <t>SA14</t>
+  </si>
+  <si>
+    <t>SA15</t>
+  </si>
+  <si>
+    <t>SA16</t>
+  </si>
+  <si>
+    <t>SA17</t>
+  </si>
+  <si>
+    <t>SA18</t>
+  </si>
+  <si>
+    <t>SA19</t>
+  </si>
+  <si>
+    <t>SA20</t>
+  </si>
+  <si>
+    <t>Demand Data.AnnualDemands</t>
+  </si>
+  <si>
+    <t>AnnDmnd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -126,6 +133,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -407,1105 +423,1113 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>35500</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="n">
-        <v>28732.4209622781</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="B4">
+        <v>28732.420962278102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="n">
-        <v>9914.0621850672</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="B5">
+        <v>9914.0621850671996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="n">
-        <v>8820.10086146758</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="B6">
+        <v>8820.1008614675793</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="n">
-        <v>6174.0706030273</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="B7">
+        <v>6174.0706030273004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="n">
-        <v>21266.2431882052</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="B8">
+        <v>21266.243188205201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="n">
-        <v>6058.59355754107</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="B9">
+        <v>6058.5935575410704</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="n">
-        <v>10584.1210337611</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="B10">
+        <v>10584.121033761099</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>1470.0168102446</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" t="n">
-        <v>71276.983627979</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="B12">
+        <v>71276.983627979003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" t="n">
-        <v>49797.3508642427</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="B13">
+        <v>49797.350864242697</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" t="n">
-        <v>24443.1033114748</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="B14">
+        <v>24443.103311474799</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>28000.1220769506</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" t="n">
-        <v>21250.9069834837</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="B16">
+        <v>21250.906983483699</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17" t="n">
-        <v>66944.9172784421</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="B17">
+        <v>66944.917278442095</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" t="n">
-        <v>17329.0657805231</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="B18">
+        <v>17329.065780523099</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" t="n">
-        <v>55179.3936695606</v>
-      </c>
-    </row>
-    <row r="20">
+      <c r="B19">
+        <v>55179.393669560603</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20" t="n">
-        <v>12788.0812882577</v>
-      </c>
-    </row>
-    <row r="21">
+      <c r="B20">
+        <v>12788.081288257699</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" t="n">
-        <v>16599.4209055538</v>
-      </c>
-    </row>
-    <row r="22">
+      <c r="B21">
+        <v>16599.420905553801</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>35500</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>31681.743579397</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>10931.7198293127</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="n">
-        <v>9044.18177835494</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="B6">
+        <v>9044.1817783549395</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="n">
-        <v>6330.92724484846</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="B7">
+        <v>6330.9272448484598</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="n">
-        <v>21806.5271767002</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="B8">
+        <v>21806.527176700201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="n">
-        <v>6680.49545124665</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="B9">
+        <v>6680.4954512466502</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="n">
-        <v>10853.0181340259</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="B10">
+        <v>10853.018134025901</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="n">
-        <v>1507.36362972582</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="B11">
+        <v>1507.3636297258199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>92888.6433827867</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" t="n">
-        <v>64896.2418216083</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="B13">
+        <v>64896.241821608302</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" t="n">
-        <v>27394.6926099237</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="B14">
+        <v>27394.692609923699</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" t="n">
-        <v>31381.2336986813</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="B15">
+        <v>31381.233698681299</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" t="n">
-        <v>23817.0275302695</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="B16">
+        <v>23817.027530269501</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17" t="n">
-        <v>75028.7476704627</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="B17">
+        <v>75028.747670462704</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" t="n">
-        <v>19421.6104324086</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="B18">
+        <v>19421.610432408601</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" t="n">
-        <v>61842.49637688</v>
-      </c>
-    </row>
-    <row r="20">
+      <c r="B19">
+        <v>61842.496376880001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>12802.08957378</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" t="n">
-        <v>18603.8584142019</v>
-      </c>
-    </row>
-    <row r="22">
+      <c r="B21">
+        <v>18603.858414201899</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>35500</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="n">
-        <v>26090.7408331229</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="B4">
+        <v>26046.530077439402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="n">
-        <v>9002.55594241941</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="B5">
+        <v>8987.3011129823008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="n">
-        <v>8485.86095358136</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="B6">
+        <v>8516.6010262477903</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="n">
-        <v>5940.10266750696</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="B7">
+        <v>5961.6207183734596</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="n">
-        <v>20460.353632524</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="B8">
+        <v>20534.4713632864</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="n">
-        <v>5501.56196481186</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="B9">
+        <v>5492.2395690447402</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="n">
-        <v>10183.0331442976</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="B10">
+        <v>10219.921231497399</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="n">
-        <v>1414.31015893023</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="B11">
+        <v>1419.43350437463</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" t="n">
-        <v>54913.4886191677</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="B12">
+        <v>53986.765787725999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" t="n">
-        <v>38365.067105265</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="B13">
+        <v>37717.6162783322</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" t="n">
-        <v>16995.8415208027</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="B14">
+        <v>16597.7386056623</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" t="n">
-        <v>19469.116965994</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="B15">
+        <v>19013.081163948798</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" t="n">
-        <v>14776.2353520411</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="B16">
+        <v>14430.1234892511</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17" t="n">
-        <v>46548.3122248847</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="B17">
+        <v>45457.985584164402</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" t="n">
-        <v>12049.2906304197</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="B18">
+        <v>11767.053489088799</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" t="n">
-        <v>38367.4780600208</v>
-      </c>
-    </row>
-    <row r="20">
+      <c r="B19">
+        <v>37468.775583677801</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20" t="n">
-        <v>13377.5750928791</v>
-      </c>
-    </row>
-    <row r="21">
+      <c r="B20">
+        <v>13501.510857977401</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" t="n">
-        <v>11541.95207756</v>
-      </c>
-    </row>
-    <row r="22">
+      <c r="B21">
+        <v>11271.5986053378</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>35500</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="n">
-        <v>31775.7574938656</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="B4">
+        <v>37190.133435411699</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="n">
-        <v>10964.1591352636</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="B5">
+        <v>12832.378309982299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="n">
-        <v>9254.38887993426</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="B6">
+        <v>10417.3641511772</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="n">
-        <v>6478.07221595398</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="B7">
+        <v>7292.1549058240698</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="n">
-        <v>22313.3598549526</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="B8">
+        <v>25117.422453394</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="n">
-        <v>6700.31947154995</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="B9">
+        <v>7842.00896721142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="n">
-        <v>11105.2666559211</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="B10">
+        <v>12500.8369814127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="n">
-        <v>1542.39814665571</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="B11">
+        <v>1736.22735852954</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" t="n">
-        <v>89630.3043069251</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="B12">
+        <v>115845.13569564901</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" t="n">
-        <v>62619.8175688337</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="B13">
+        <v>80934.694125967304</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" t="n">
-        <v>26062.9776556685</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="B14">
+        <v>38204.4613606286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" t="n">
-        <v>29855.724404068</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="B15">
+        <v>43764.065812362001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" t="n">
-        <v>22659.2305737715</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="B16">
+        <v>33215.0727500988</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17" t="n">
-        <v>71381.4388032113</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="B17">
+        <v>104634.606860826</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" t="n">
-        <v>18477.4841588693</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="B18">
+        <v>27085.2524571621</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" t="n">
-        <v>58836.1995585053</v>
-      </c>
-    </row>
-    <row r="20">
+      <c r="B19">
+        <v>86245.145982016198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20" t="n">
-        <v>13423.8447979493</v>
-      </c>
-    </row>
-    <row r="21">
+      <c r="B20">
+        <v>13624.290581023601</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" t="n">
-        <v>17699.4848258644</v>
-      </c>
-    </row>
-    <row r="22">
+      <c r="B21">
+        <v>25944.820774755201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>35500</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="n">
-        <v>17754.5715283476</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="B4">
+        <v>17073.877241226299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="n">
-        <v>6126.17803534038</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="B5">
+        <v>5891.3058851515398</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="n">
-        <v>7646.57538868401</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="B6">
+        <v>7657.9356990877204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="n">
-        <v>5352.60277207881</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="B7">
+        <v>5360.5549893614098</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="n">
-        <v>18436.7428816048</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="B8">
+        <v>18464.133852244799</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="n">
-        <v>3743.77546604133</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="B9">
+        <v>3600.2424853703801</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="n">
-        <v>9175.89046642081</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="B10">
+        <v>9189.5228389052609</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="n">
-        <v>1274.42923144734</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="B11">
+        <v>1276.32261651462</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" t="n">
-        <v>65937.7531173411</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="B12">
+        <v>65937.753117341097</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" t="n">
-        <v>46067.1209702417</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="B13">
+        <v>46067.120970241704</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>14004.9075756615</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" t="n">
-        <v>16042.9351706272</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="B15">
+        <v>16042.935170627199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" t="n">
-        <v>12175.9084519744</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="B16">
+        <v>12175.908451974399</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17" t="n">
-        <v>38356.7244796103</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="B17">
+        <v>38356.724479610297</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" t="n">
-        <v>9928.85238573018</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="B18">
+        <v>9928.8523857301807</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" t="n">
-        <v>31615.5562808777</v>
-      </c>
-    </row>
-    <row r="20">
+      <c r="B19">
+        <v>31615.556280877699</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20" t="n">
-        <v>13728.1324234622</v>
-      </c>
-    </row>
-    <row r="21">
+      <c r="B20">
+        <v>13976.033591003799</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" t="n">
-        <v>9510.79544317312</v>
-      </c>
-    </row>
-    <row r="22">
+      <c r="B21">
+        <v>9510.7954431731196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>35500</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="n">
-        <v>29202.3042101338</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="B4">
+        <v>47839.148599350199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="n">
-        <v>10076.1944239439</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="B5">
+        <v>16506.7988777311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="n">
-        <v>9153.59405147333</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="B6">
+        <v>11907.256857378499</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="n">
-        <v>6407.51583603134</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="B7">
+        <v>8335.0798001649491</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="n">
-        <v>22070.3323241079</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="B8">
+        <v>28709.7193116792</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="n">
-        <v>6157.67437018794</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="B9">
+        <v>10087.488203057899</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="n">
-        <v>10984.312861768</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="B10">
+        <v>14288.708228854201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="n">
-        <v>1525.59900857889</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="B11">
+        <v>1984.54280956308</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" t="n">
-        <v>106672.613143139</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="B12">
+        <v>146596.084865546</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" t="n">
-        <v>74526.3516203194</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="B13">
+        <v>102418.70940380701</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" t="n">
-        <v>24762.9427445076</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="B14">
+        <v>44606.733126081897</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" t="n">
-        <v>28366.5053080738</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="B15">
+        <v>51098.011454131098</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" t="n">
-        <v>21528.9763413068</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="B16">
+        <v>38781.226934242797</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17" t="n">
-        <v>67820.8954271212</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="B17">
+        <v>122169.186994567</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" t="n">
-        <v>17555.8176173746</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="B18">
+        <v>31624.1764699833</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" t="n">
-        <v>55901.4192553247</v>
-      </c>
-    </row>
-    <row r="20">
+      <c r="B19">
+        <v>100698.035601789</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20" t="n">
-        <v>13793.8735278091</v>
-      </c>
-    </row>
-    <row r="21">
+      <c r="B20">
+        <v>14167.681109289801</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" t="n">
-        <v>16816.625296643</v>
-      </c>
-    </row>
-    <row r="22">
+      <c r="B21">
+        <v>30292.632197563002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/2 - RiverWare Modeling/Hydrology/MI+AG_Values.xlsx
+++ b/2 - RiverWare Modeling/Hydrology/MI+AG_Values.xlsx
@@ -1,103 +1,96 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacob\Documents\GitHub\WeberBasinVulnerability\WeberBasinVulnerability\2 - RiverWare Modeling\Hydrology\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F28C66-2987-44EE-9D1B-45E0A987B6FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-4575" yWindow="1290" windowWidth="15375" windowHeight="7875" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Trace1" sheetId="1" r:id="rId1"/>
-    <sheet name="Trace2" sheetId="2" r:id="rId2"/>
-    <sheet name="Trace3" sheetId="3" r:id="rId3"/>
-    <sheet name="Trace4" sheetId="4" r:id="rId4"/>
-    <sheet name="Trace5" sheetId="5" r:id="rId5"/>
-    <sheet name="Trace6" sheetId="6" r:id="rId6"/>
+    <sheet name="Trace1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Trace2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Trace3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Trace4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Trace5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Trace6" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="22">
-  <si>
-    <t>SA1</t>
-  </si>
-  <si>
-    <t>SA2</t>
-  </si>
-  <si>
-    <t>SA3</t>
-  </si>
-  <si>
-    <t>SA4</t>
-  </si>
-  <si>
-    <t>SA5</t>
-  </si>
-  <si>
-    <t>SA6</t>
-  </si>
-  <si>
-    <t>SA7</t>
-  </si>
-  <si>
-    <t>SA8</t>
-  </si>
-  <si>
-    <t>SA9</t>
-  </si>
-  <si>
-    <t>SA10</t>
-  </si>
-  <si>
-    <t>SA11</t>
-  </si>
-  <si>
-    <t>SA12</t>
-  </si>
-  <si>
-    <t>SA13</t>
-  </si>
-  <si>
-    <t>SA14</t>
-  </si>
-  <si>
-    <t>SA15</t>
-  </si>
-  <si>
-    <t>SA16</t>
-  </si>
-  <si>
-    <t>SA17</t>
-  </si>
-  <si>
-    <t>SA18</t>
-  </si>
-  <si>
-    <t>SA19</t>
-  </si>
-  <si>
-    <t>SA20</t>
-  </si>
-  <si>
-    <t>Demand Data.AnnualDemands</t>
-  </si>
-  <si>
-    <t>AnnDmnd</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t xml:space="preserve">SA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demand Data.AnnualDemands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AnnDmnd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -133,15 +126,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -423,1113 +407,1105 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="B1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="B2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>35500</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>28732.420962278102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="n">
+        <v>28732.4209622781</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>9914.0621850671996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="n">
+        <v>9914.0621850672</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>8820.1008614675793</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="n">
+        <v>8820.10086146758</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
-        <v>6174.0706030273004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="n">
+        <v>6174.0706030273</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
-        <v>21266.243188205201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="n">
+        <v>21266.2431882052</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
-        <v>6058.5935575410704</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="n">
+        <v>6058.59355754107</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10">
-        <v>10584.121033761099</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="n">
+        <v>10584.1210337611</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>1470.0168102446</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12">
-        <v>71276.983627979003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="n">
+        <v>71276.983627979</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13">
-        <v>49797.350864242697</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="n">
+        <v>49797.3508642427</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14">
-        <v>24443.103311474799</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="n">
+        <v>24443.1033114748</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>28000.1220769506</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16">
-        <v>21250.906983483699</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="n">
+        <v>21250.9069834837</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17">
-        <v>66944.917278442095</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="n">
+        <v>66944.9172784421</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18">
-        <v>17329.065780523099</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="n">
+        <v>17329.0657805231</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19">
-        <v>55179.393669560603</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="n">
+        <v>55179.3936695606</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20">
-        <v>12788.081288257699</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="n">
+        <v>12788.0812882577</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21">
-        <v>16599.420905553801</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="n">
+        <v>16599.4209055538</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="B1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="B2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>35500</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>31681.743579397</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>10931.7198293127</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>9044.1817783549395</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="n">
+        <v>9044.18177835494</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
-        <v>6330.9272448484598</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="n">
+        <v>6330.92724484846</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
-        <v>21806.527176700201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="n">
+        <v>21806.5271767002</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
-        <v>6680.4954512466502</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="n">
+        <v>6680.49545124665</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10">
-        <v>10853.018134025901</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="n">
+        <v>10853.0181340259</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11">
-        <v>1507.3636297258199</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="n">
+        <v>1507.36362972582</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>92888.6433827867</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13">
-        <v>64896.241821608302</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="n">
+        <v>64896.2418216083</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14">
-        <v>27394.692609923699</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="n">
+        <v>27394.6926099237</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15">
-        <v>31381.233698681299</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="n">
+        <v>31381.2336986813</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16">
-        <v>23817.027530269501</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="n">
+        <v>23817.0275302695</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17">
-        <v>75028.747670462704</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="n">
+        <v>75028.7476704627</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18">
-        <v>19421.610432408601</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="n">
+        <v>19421.6104324086</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19">
-        <v>61842.496376880001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="n">
+        <v>61842.49637688</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>12802.08957378</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21">
-        <v>18603.858414201899</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="n">
+        <v>18603.8584142019</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B22"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="B1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="B2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>35500</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>26046.530077439402</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="n">
+        <v>26046.5300774394</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>8987.3011129823008</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="n">
+        <v>8987.3011129823</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>8516.6010262477903</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="n">
+        <v>8516.60102624779</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
-        <v>5961.6207183734596</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="n">
+        <v>5961.62071837346</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>20534.4713632864</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
-        <v>5492.2395690447402</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="n">
+        <v>5492.23956904474</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10">
-        <v>10219.921231497399</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="n">
+        <v>10219.9212314974</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>1419.43350437463</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12">
-        <v>53986.765787725999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="n">
+        <v>53986.765787726</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>37717.6162783322</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>16597.7386056623</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15">
-        <v>19013.081163948798</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="n">
+        <v>19013.0811639488</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>14430.1234892511</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17">
-        <v>45457.985584164402</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="n">
+        <v>45457.9855841644</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18">
-        <v>11767.053489088799</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="n">
+        <v>11767.0534890888</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19">
-        <v>37468.775583677801</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="n">
+        <v>37468.7755836778</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20">
-        <v>13501.510857977401</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="n">
+        <v>13501.5108579774</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>11271.5986053378</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B22"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="B1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="B2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>35500</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>37190.133435411699</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="n">
+        <v>37190.1334354117</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>12832.378309982299</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="n">
+        <v>12832.3783099823</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>10417.3641511772</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
-        <v>7292.1549058240698</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="n">
+        <v>7292.15490582407</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>25117.422453394</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>7842.00896721142</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>12500.8369814127</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>1736.22735852954</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12">
-        <v>115845.13569564901</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="n">
+        <v>115845.135695649</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13">
-        <v>80934.694125967304</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="n">
+        <v>80934.6941259673</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>38204.4613606286</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15">
-        <v>43764.065812362001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="n">
+        <v>43764.065812362</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>33215.0727500988</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>104634.606860826</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>27085.2524571621</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19">
-        <v>86245.145982016198</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="n">
+        <v>86245.1459820162</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20">
-        <v>13624.290581023601</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="n">
+        <v>13624.2905810236</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21">
-        <v>25944.820774755201</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="n">
+        <v>25944.8207747552</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B22"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="B1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="B2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>35500</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>17073.877241226299</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="n">
+        <v>17073.8772412263</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>5891.3058851515398</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="n">
+        <v>5891.30588515154</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>7657.9356990877204</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="n">
+        <v>7657.93569908772</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
-        <v>5360.5549893614098</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="n">
+        <v>5360.55498936141</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
-        <v>18464.133852244799</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="n">
+        <v>18464.1338522448</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
-        <v>3600.2424853703801</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="n">
+        <v>3600.24248537038</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10">
-        <v>9189.5228389052609</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="n">
+        <v>9189.52283890526</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>1276.32261651462</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12">
-        <v>65937.753117341097</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="n">
+        <v>65937.7531173411</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13">
-        <v>46067.120970241704</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="n">
+        <v>46067.1209702417</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>14004.9075756615</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15">
-        <v>16042.935170627199</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="n">
+        <v>16042.9351706272</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16">
-        <v>12175.908451974399</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="n">
+        <v>12175.9084519744</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17">
-        <v>38356.724479610297</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="n">
+        <v>38356.7244796103</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18">
-        <v>9928.8523857301807</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="n">
+        <v>9928.85238573018</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19">
-        <v>31615.556280877699</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="n">
+        <v>31615.5562808777</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20">
-        <v>13976.033591003799</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="n">
+        <v>13976.0335910038</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21">
-        <v>9510.7954431731196</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="n">
+        <v>9510.79544317312</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B22"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="B1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="B2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>35500</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>47839.148599350199</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="n">
+        <v>47839.1485993502</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>16506.7988777311</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>11907.256857378499</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="n">
+        <v>11907.2568573785</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
-        <v>8335.0798001649491</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="n">
+        <v>8335.07980016495</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>28709.7193116792</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
-        <v>10087.488203057899</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="n">
+        <v>10087.4882030579</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10">
-        <v>14288.708228854201</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="n">
+        <v>14288.7082288542</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>1984.54280956308</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>146596.084865546</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13">
-        <v>102418.70940380701</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="n">
+        <v>102418.709403807</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14">
-        <v>44606.733126081897</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="n">
+        <v>44606.7331260819</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15">
-        <v>51098.011454131098</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="n">
+        <v>51098.0114541311</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16">
-        <v>38781.226934242797</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="n">
+        <v>38781.2269342428</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>122169.186994567</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>31624.1764699833</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>100698.035601789</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20">
-        <v>14167.681109289801</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="n">
+        <v>14167.6811092898</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21">
-        <v>30292.632197563002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="n">
+        <v>30292.632197563</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>